--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/OKLAHOMA_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/OKLAHOMA_2024.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1228"/>
+  <dimension ref="A1:D1222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C11">
@@ -530,7 +530,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C13">
@@ -600,7 +600,7 @@
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C18">
@@ -670,7 +670,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C23">
@@ -779,7 +779,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C31">
@@ -836,7 +836,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C35">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C46">
@@ -1057,7 +1057,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C52">
@@ -1343,7 +1343,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C74">
@@ -1395,7 +1395,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C78">
@@ -1525,7 +1525,7 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C88">
@@ -1538,7 +1538,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C89">
@@ -1811,7 +1811,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C110">
@@ -1998,7 +1998,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C124">
@@ -2102,7 +2102,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C132">
@@ -2141,7 +2141,7 @@
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C135">
@@ -2414,7 +2414,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C156">
@@ -2427,7 +2427,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C157">
@@ -2518,7 +2518,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C164">
@@ -2531,7 +2531,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C165">
@@ -2544,7 +2544,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2588,7 +2588,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C169">
@@ -2757,7 +2757,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C182">
@@ -2770,7 +2770,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Coahuila de Zaragoza</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -3022,7 +3022,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C202">
@@ -3113,7 +3113,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C209">
@@ -3248,7 +3248,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C219">
@@ -3261,7 +3261,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C220">
@@ -3292,7 +3292,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C222">
@@ -3474,7 +3474,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C236">
@@ -3552,7 +3552,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C242">
@@ -3604,7 +3604,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C246">
@@ -3617,7 +3617,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C247">
@@ -3630,7 +3630,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C248">
@@ -3643,7 +3643,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C249">
@@ -3760,7 +3760,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C258">
@@ -3773,12 +3773,12 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C259">
@@ -3817,7 +3817,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C262">
@@ -3830,7 +3830,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C263">
@@ -3882,7 +3882,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C267">
@@ -3960,7 +3960,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C273">
@@ -4025,7 +4025,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C278">
@@ -4064,7 +4064,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C281">
@@ -4181,7 +4181,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C290">
@@ -4246,7 +4246,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C295">
@@ -4259,7 +4259,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C296">
@@ -4272,7 +4272,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>San José del Rincón</t>
+          <t>San José Del Rincón</t>
         </is>
       </c>
       <c r="C297">
@@ -4285,7 +4285,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C298">
@@ -4376,7 +4376,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C305">
@@ -4454,7 +4454,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C311">
@@ -4519,7 +4519,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C316">
@@ -4558,7 +4558,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C319">
@@ -4571,7 +4571,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C320">
@@ -4610,7 +4610,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C323">
@@ -4654,7 +4654,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C326">
@@ -4667,7 +4667,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C327">
@@ -4784,7 +4784,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C336">
@@ -4836,7 +4836,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C340">
@@ -4927,7 +4927,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C347">
@@ -4992,7 +4992,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C352">
@@ -5018,7 +5018,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C354">
@@ -5044,7 +5044,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C356">
@@ -5057,7 +5057,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C357">
@@ -5083,7 +5083,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C359">
@@ -5109,7 +5109,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C361">
@@ -5174,7 +5174,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C366">
@@ -5239,7 +5239,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C371">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C372">
@@ -5296,7 +5296,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C375">
@@ -5309,7 +5309,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C376">
@@ -5348,7 +5348,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C379">
@@ -5361,7 +5361,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C380">
@@ -5400,7 +5400,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C383">
@@ -5413,7 +5413,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C384">
@@ -5426,7 +5426,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C385">
@@ -5465,7 +5465,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C388">
@@ -5478,7 +5478,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C389">
@@ -5504,7 +5504,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C391">
@@ -5582,7 +5582,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C397">
@@ -5595,7 +5595,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C398">
@@ -5634,7 +5634,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C401">
@@ -5647,7 +5647,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C402">
@@ -5686,7 +5686,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C405">
@@ -5816,7 +5816,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C415">
@@ -5868,7 +5868,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C419">
@@ -5907,7 +5907,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C422">
@@ -5933,7 +5933,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C424">
@@ -5959,7 +5959,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C426">
@@ -5998,7 +5998,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C429">
@@ -6094,7 +6094,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C436">
@@ -6172,7 +6172,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C442">
@@ -6237,7 +6237,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C447">
@@ -6276,7 +6276,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C450">
@@ -6315,7 +6315,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C453">
@@ -6328,7 +6328,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C454">
@@ -6354,7 +6354,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C456">
@@ -6367,7 +6367,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C457">
@@ -6393,7 +6393,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C459">
@@ -6445,7 +6445,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C463">
@@ -6497,7 +6497,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C467">
@@ -6510,7 +6510,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C468">
@@ -6536,7 +6536,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C470">
@@ -6588,7 +6588,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C474">
@@ -6601,7 +6601,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C475">
@@ -6614,7 +6614,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C476">
@@ -6653,7 +6653,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C479">
@@ -6666,7 +6666,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C480">
@@ -6705,7 +6705,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C483">
@@ -6736,7 +6736,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C485">
@@ -6788,7 +6788,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C489">
@@ -6814,7 +6814,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C491">
@@ -6879,7 +6879,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C496">
@@ -6918,7 +6918,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C499">
@@ -6931,7 +6931,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C500">
@@ -7035,7 +7035,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C508">
@@ -7074,7 +7074,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C511">
@@ -7100,7 +7100,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C513">
@@ -7191,7 +7191,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C520">
@@ -7269,7 +7269,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C526">
@@ -7321,7 +7321,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C530">
@@ -7334,7 +7334,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C531">
@@ -7360,7 +7360,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C533">
@@ -7399,7 +7399,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C536">
@@ -7425,7 +7425,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C538">
@@ -7451,7 +7451,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C540">
@@ -7464,7 +7464,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C541">
@@ -7503,7 +7503,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C544">
@@ -7516,7 +7516,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C545">
@@ -7542,7 +7542,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C547">
@@ -7555,7 +7555,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C548">
@@ -7607,7 +7607,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C552">
@@ -7620,7 +7620,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C553">
@@ -7633,7 +7633,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C554">
@@ -7698,7 +7698,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C559">
@@ -7711,7 +7711,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C560">
@@ -7763,7 +7763,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C564">
@@ -7776,7 +7776,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C565">
@@ -7789,7 +7789,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Michoacán de Ocampo</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
@@ -7989,7 +7989,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C581">
@@ -8015,7 +8015,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C583">
@@ -8665,7 +8665,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C633">
@@ -8912,7 +8912,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C652">
@@ -8956,7 +8956,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C655">
@@ -9060,7 +9060,7 @@
     <row r="663">
       <c r="B663" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C663">
@@ -9112,7 +9112,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C667">
@@ -9177,7 +9177,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C672">
@@ -9208,7 +9208,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C674">
@@ -9247,7 +9247,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C677">
@@ -9338,7 +9338,7 @@
     <row r="684">
       <c r="B684" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C684">
@@ -9403,7 +9403,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C689">
@@ -9473,7 +9473,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>Ciénega de Flores</t>
+          <t>Ciénega De Flores</t>
         </is>
       </c>
       <c r="C694">
@@ -9538,7 +9538,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>Lampazos de Naranjo</t>
+          <t>Lampazos De Naranjo</t>
         </is>
       </c>
       <c r="C699">
@@ -9564,7 +9564,7 @@
     <row r="701">
       <c r="B701" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C701">
@@ -9603,7 +9603,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C704">
@@ -9655,7 +9655,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C708">
@@ -9712,7 +9712,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C712">
@@ -9751,7 +9751,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C715">
@@ -9777,7 +9777,7 @@
     <row r="717">
       <c r="B717" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C717">
@@ -9790,7 +9790,7 @@
     <row r="718">
       <c r="B718" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C718">
@@ -9803,7 +9803,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C719">
@@ -9816,7 +9816,7 @@
     <row r="720">
       <c r="B720" t="inlineStr">
         <is>
-          <t>Huajuapan de León</t>
+          <t>Huajuapan De León</t>
         </is>
       </c>
       <c r="C720">
@@ -9829,7 +9829,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C721">
@@ -9881,7 +9881,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C725">
@@ -9894,7 +9894,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C726">
@@ -9907,7 +9907,7 @@
     <row r="727">
       <c r="B727" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C727">
@@ -9920,7 +9920,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C728">
@@ -9933,7 +9933,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C729">
@@ -9946,7 +9946,7 @@
     <row r="730">
       <c r="B730" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C730">
@@ -10011,7 +10011,7 @@
     <row r="735">
       <c r="B735" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C735">
@@ -10037,7 +10037,7 @@
     <row r="737">
       <c r="B737" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C737">
@@ -10063,7 +10063,7 @@
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C739">
@@ -10076,7 +10076,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C740">
@@ -10349,7 +10349,7 @@
     <row r="761">
       <c r="B761" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C761">
@@ -10453,7 +10453,7 @@
     <row r="769">
       <c r="B769" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C769">
@@ -10531,7 +10531,7 @@
     <row r="775">
       <c r="B775" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C775">
@@ -10661,7 +10661,7 @@
     <row r="785">
       <c r="B785" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C785">
@@ -10869,7 +10869,7 @@
     <row r="801">
       <c r="B801" t="inlineStr">
         <is>
-          <t>Sitio de Xitlapehua</t>
+          <t>Sitio De Xitlapehua</t>
         </is>
       </c>
       <c r="C801">
@@ -10882,7 +10882,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C802">
@@ -10895,7 +10895,7 @@
     <row r="803">
       <c r="B803" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C803">
@@ -10908,7 +10908,7 @@
     <row r="804">
       <c r="B804" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C804">
@@ -10921,7 +10921,7 @@
     <row r="805">
       <c r="B805" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C805">
@@ -10934,7 +10934,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C806">
@@ -10973,7 +10973,7 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C809">
@@ -10986,7 +10986,7 @@
     <row r="810">
       <c r="B810" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C810">
@@ -10999,7 +10999,7 @@
     <row r="811">
       <c r="B811" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C811">
@@ -11012,7 +11012,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C812">
@@ -11025,7 +11025,7 @@
     <row r="813">
       <c r="B813" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C813">
@@ -11038,7 +11038,7 @@
     <row r="814">
       <c r="B814" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C814">
@@ -11051,7 +11051,7 @@
     <row r="815">
       <c r="B815" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C815">
@@ -11064,7 +11064,7 @@
     <row r="816">
       <c r="B816" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C816">
@@ -11077,7 +11077,7 @@
     <row r="817">
       <c r="B817" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C817">
@@ -11212,7 +11212,7 @@
     <row r="827">
       <c r="B827" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C827">
@@ -11407,7 +11407,7 @@
     <row r="842">
       <c r="B842" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C842">
@@ -11446,7 +11446,7 @@
     <row r="845">
       <c r="B845" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C845">
@@ -11459,7 +11459,7 @@
     <row r="846">
       <c r="B846" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C846">
@@ -11498,7 +11498,7 @@
     <row r="849">
       <c r="B849" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C849">
@@ -11615,7 +11615,7 @@
     <row r="858">
       <c r="B858" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C858">
@@ -11732,7 +11732,7 @@
     <row r="867">
       <c r="B867" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C867">
@@ -11771,7 +11771,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C870">
@@ -11784,7 +11784,7 @@
     <row r="871">
       <c r="B871" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C871">
@@ -11862,7 +11862,7 @@
     <row r="877">
       <c r="B877" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C877">
@@ -11914,7 +11914,7 @@
     <row r="881">
       <c r="B881" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C881">
@@ -11992,7 +11992,7 @@
     <row r="887">
       <c r="B887" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C887">
@@ -12010,7 +12010,7 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C888">
@@ -12036,7 +12036,7 @@
     <row r="890">
       <c r="B890" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C890">
@@ -12114,7 +12114,7 @@
     <row r="896">
       <c r="B896" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C896">
@@ -12127,7 +12127,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C897">
@@ -12153,7 +12153,7 @@
     <row r="899">
       <c r="B899" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C899">
@@ -12192,7 +12192,7 @@
     <row r="902">
       <c r="B902" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C902">
@@ -12231,7 +12231,7 @@
     <row r="905">
       <c r="B905" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C905">
@@ -12288,7 +12288,7 @@
     <row r="909">
       <c r="B909" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C909">
@@ -12345,7 +12345,7 @@
     <row r="913">
       <c r="B913" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C913">
@@ -12358,7 +12358,7 @@
     <row r="914">
       <c r="B914" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C914">
@@ -12410,7 +12410,7 @@
     <row r="918">
       <c r="B918" t="inlineStr">
         <is>
-          <t>Cerro de San Pedro</t>
+          <t>Cerro De San Pedro</t>
         </is>
       </c>
       <c r="C918">
@@ -12462,7 +12462,7 @@
     <row r="922">
       <c r="B922" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C922">
@@ -12592,7 +12592,7 @@
     <row r="932">
       <c r="B932" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C932">
@@ -12670,7 +12670,7 @@
     <row r="938">
       <c r="B938" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C938">
@@ -12735,7 +12735,7 @@
     <row r="943">
       <c r="B943" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C943">
@@ -12761,7 +12761,7 @@
     <row r="945">
       <c r="B945" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C945">
@@ -12839,7 +12839,7 @@
     <row r="951">
       <c r="B951" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C951">
@@ -12904,7 +12904,7 @@
     <row r="956">
       <c r="B956" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C956">
@@ -12917,7 +12917,7 @@
     <row r="957">
       <c r="B957" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C957">
@@ -12930,7 +12930,7 @@
     <row r="958">
       <c r="B958" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C958">
@@ -12943,7 +12943,7 @@
     <row r="959">
       <c r="B959" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C959">
@@ -12956,7 +12956,7 @@
     <row r="960">
       <c r="B960" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C960">
@@ -12995,7 +12995,7 @@
     <row r="963">
       <c r="B963" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C963">
@@ -13182,7 +13182,7 @@
     <row r="977">
       <c r="B977" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C977">
@@ -13304,7 +13304,7 @@
     <row r="986">
       <c r="B986" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C986">
@@ -13408,7 +13408,7 @@
     <row r="994">
       <c r="B994" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C994">
@@ -13543,7 +13543,7 @@
     <row r="1004">
       <c r="B1004" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1004">
@@ -13608,7 +13608,7 @@
     <row r="1009">
       <c r="B1009" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1009">
@@ -13899,7 +13899,7 @@
     <row r="1031">
       <c r="B1031" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1031">
@@ -13990,7 +13990,7 @@
     <row r="1038">
       <c r="B1038" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1038">
@@ -14099,7 +14099,7 @@
     <row r="1046">
       <c r="B1046" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1046">
@@ -14112,7 +14112,7 @@
     <row r="1047">
       <c r="B1047" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1047">
@@ -14229,7 +14229,7 @@
     <row r="1056">
       <c r="B1056" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1056">
@@ -14242,7 +14242,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>Veracruz de Ignacio de la Llave</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr">
@@ -14286,7 +14286,7 @@
     <row r="1060">
       <c r="B1060" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1060">
@@ -14364,7 +14364,7 @@
     <row r="1066">
       <c r="B1066" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1066">
@@ -14403,7 +14403,7 @@
     <row r="1069">
       <c r="B1069" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1069">
@@ -14429,7 +14429,7 @@
     <row r="1071">
       <c r="B1071" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1071">
@@ -14546,7 +14546,7 @@
     <row r="1080">
       <c r="B1080" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1080">
@@ -14559,7 +14559,7 @@
     <row r="1081">
       <c r="B1081" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1081">
@@ -14689,7 +14689,7 @@
     <row r="1091">
       <c r="B1091" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1091">
@@ -14702,7 +14702,7 @@
     <row r="1092">
       <c r="B1092" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1092">
@@ -14754,7 +14754,7 @@
     <row r="1096">
       <c r="B1096" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1096">
@@ -14858,7 +14858,7 @@
     <row r="1104">
       <c r="B1104" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1104">
@@ -15001,7 +15001,7 @@
     <row r="1115">
       <c r="B1115" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1115">
@@ -15027,7 +15027,7 @@
     <row r="1117">
       <c r="B1117" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1117">
@@ -15066,7 +15066,7 @@
     <row r="1120">
       <c r="B1120" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1120">
@@ -15157,7 +15157,7 @@
     <row r="1127">
       <c r="B1127" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1127">
@@ -15183,7 +15183,7 @@
     <row r="1129">
       <c r="B1129" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1129">
@@ -15235,7 +15235,7 @@
     <row r="1133">
       <c r="B1133" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1133">
@@ -15404,7 +15404,7 @@
     <row r="1146">
       <c r="B1146" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1146">
@@ -15495,7 +15495,7 @@
     <row r="1153">
       <c r="B1153" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1153">
@@ -15573,7 +15573,7 @@
     <row r="1159">
       <c r="B1159" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1159">
@@ -15599,7 +15599,7 @@
     <row r="1161">
       <c r="B1161" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1161">
@@ -15721,7 +15721,7 @@
     <row r="1170">
       <c r="B1170" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1170">
@@ -15791,7 +15791,7 @@
     <row r="1175">
       <c r="B1175" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1175">
@@ -15817,7 +15817,7 @@
     <row r="1177">
       <c r="B1177" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1177">
@@ -15843,7 +15843,7 @@
     <row r="1179">
       <c r="B1179" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1179">
@@ -16038,7 +16038,7 @@
     <row r="1194">
       <c r="B1194" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1194">
@@ -16103,7 +16103,7 @@
     <row r="1199">
       <c r="B1199" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1199">
@@ -16116,7 +16116,7 @@
     <row r="1200">
       <c r="B1200" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1200">
@@ -16129,7 +16129,7 @@
     <row r="1201">
       <c r="B1201" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1201">
@@ -16259,7 +16259,7 @@
     <row r="1211">
       <c r="B1211" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1211">
@@ -16350,7 +16350,7 @@
     <row r="1218">
       <c r="B1218" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1218">
@@ -16389,7 +16389,7 @@
     <row r="1221">
       <c r="B1221" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1221">
@@ -16402,7 +16402,7 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1222">
@@ -16410,41 +16410,6 @@
       </c>
       <c r="D1222">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1224">
-      <c r="A1224" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 808,027</t>
-        </is>
-      </c>
-    </row>
-    <row r="1225">
-      <c r="A1225" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1226">
-      <c r="A1226" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1227">
-      <c r="A1227" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1228">
-      <c r="A1228" t="inlineStr">
-        <is>
-          <t>Junio de 2025</t>
-        </is>
       </c>
     </row>
   </sheetData>
